--- a/raw_datasets/SiPDAB_raw.xlsx
+++ b/raw_datasets/SiPDAB_raw.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\kyroyo\rosetta-antibody-ddgs\raw_datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E8FBFF-710C-4760-B2FD-9239A0207A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="45120" windowHeight="24020" tabRatio="677"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19410" windowHeight="13875" tabRatio="677" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="61" r:id="rId1"/>
     <sheet name="Table S2" sheetId="58" r:id="rId2"/>
     <sheet name="Table S3" sheetId="66" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1827,11 +1843,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2021,6 +2037,13 @@
     <font>
       <sz val="9"/>
       <name val="Symbol"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2780,7 +2803,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3020,6 +3043,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="31" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="518">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3539,7 +3563,7 @@
     <cellStyle name="Hyperlink" xfId="514" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="516" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3618,6 +3642,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3929,7 +3956,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3973,7 +4000,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3994,39 +4021,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A188" sqref="A188"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.33203125" style="9" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="9" customWidth="1"/>
     <col min="3" max="3" width="10" style="20" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="20"/>
+    <col min="4" max="4" width="9.1328125" style="20"/>
     <col min="5" max="5" width="11.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="26" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="26" customWidth="1"/>
+    <col min="8" max="8" width="9.46484375" style="26" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.796875" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="6.46484375" style="9" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" style="9" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="8.83203125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="8.796875" style="9" customWidth="1"/>
     <col min="16" max="16" width="23.33203125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="11.83203125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.796875" style="20" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="10.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.46484375" style="20" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="10" style="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12" style="20" bestFit="1" customWidth="1"/>
     <col min="23" max="25" width="9.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.1640625" style="20"/>
+    <col min="26" max="16384" width="9.1328125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="1" spans="1:18" s="12" customFormat="1" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A1" s="51" t="s">
         <v>407</v>
       </c>
@@ -4082,7 +4111,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="2" spans="1:18" s="12" customFormat="1" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
         <v>413</v>
       </c>
@@ -4129,7 +4158,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="3" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" s="25" t="s">
         <v>410</v>
       </c>
@@ -4154,7 +4183,7 @@
       <c r="Q3" s="50"/>
       <c r="R3" s="88"/>
     </row>
-    <row r="4" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="4" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="11" t="s">
         <v>412</v>
       </c>
@@ -4173,7 +4202,7 @@
       <c r="Q4" s="50"/>
       <c r="R4" s="88"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    <row r="5" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="15" t="s">
         <v>414</v>
       </c>
@@ -4200,16 +4229,16 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="90"/>
     </row>
-    <row r="6" spans="1:18" ht="14">
+    <row r="6" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="147" t="s">
         <v>162</v>
       </c>
       <c r="R6" s="91"/>
     </row>
-    <row r="7" spans="1:18" ht="14">
+    <row r="7" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>175</v>
       </c>
@@ -4244,7 +4273,7 @@
       <c r="P7" s="27"/>
       <c r="R7" s="91"/>
     </row>
-    <row r="8" spans="1:18" ht="14">
+    <row r="8" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A8" s="25" t="s">
         <v>177</v>
       </c>
@@ -4274,7 +4303,7 @@
       </c>
       <c r="R8" s="91"/>
     </row>
-    <row r="9" spans="1:18" ht="14">
+    <row r="9" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A9" s="11" t="s">
         <v>180</v>
       </c>
@@ -4304,7 +4333,7 @@
       </c>
       <c r="R9" s="91"/>
     </row>
-    <row r="10" spans="1:18" ht="14">
+    <row r="10" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
@@ -4334,7 +4363,7 @@
       </c>
       <c r="R10" s="91"/>
     </row>
-    <row r="11" spans="1:18" ht="14">
+    <row r="11" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C11" s="20" t="s">
         <v>200</v>
       </c>
@@ -4361,7 +4390,7 @@
       </c>
       <c r="R11" s="91"/>
     </row>
-    <row r="12" spans="1:18" ht="14">
+    <row r="12" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C12" s="20" t="s">
         <v>202</v>
       </c>
@@ -4388,7 +4417,7 @@
       </c>
       <c r="R12" s="91"/>
     </row>
-    <row r="13" spans="1:18" ht="14">
+    <row r="13" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C13" s="20" t="s">
         <v>203</v>
       </c>
@@ -4415,7 +4444,7 @@
       </c>
       <c r="R13" s="91"/>
     </row>
-    <row r="14" spans="1:18" ht="14">
+    <row r="14" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="C14" s="20" t="s">
         <v>203</v>
@@ -4443,7 +4472,7 @@
       </c>
       <c r="R14" s="91"/>
     </row>
-    <row r="15" spans="1:18" ht="14">
+    <row r="15" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="C15" s="20" t="s">
         <v>203</v>
@@ -4471,7 +4500,7 @@
       </c>
       <c r="R15" s="91"/>
     </row>
-    <row r="16" spans="1:18" ht="14">
+    <row r="16" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="C16" s="20" t="s">
         <v>203</v>
@@ -4499,7 +4528,7 @@
       </c>
       <c r="R16" s="91"/>
     </row>
-    <row r="17" spans="1:23" ht="14">
+    <row r="17" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="C17" s="20" t="s">
         <v>206</v>
@@ -4527,7 +4556,7 @@
       </c>
       <c r="R17" s="91"/>
     </row>
-    <row r="18" spans="1:23" ht="14">
+    <row r="18" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C18" s="20" t="s">
         <v>206</v>
       </c>
@@ -4554,7 +4583,7 @@
       </c>
       <c r="R18" s="91"/>
     </row>
-    <row r="19" spans="1:23" ht="14">
+    <row r="19" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C19" s="20" t="s">
         <v>206</v>
       </c>
@@ -4581,7 +4610,7 @@
       </c>
       <c r="R19" s="91"/>
     </row>
-    <row r="20" spans="1:23" ht="14">
+    <row r="20" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C20" s="20" t="s">
         <v>207</v>
       </c>
@@ -4608,7 +4637,7 @@
       </c>
       <c r="R20" s="91"/>
     </row>
-    <row r="21" spans="1:23" ht="14">
+    <row r="21" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C21" s="20" t="s">
         <v>208</v>
       </c>
@@ -4635,7 +4664,7 @@
       </c>
       <c r="R21" s="91"/>
     </row>
-    <row r="22" spans="1:23" ht="14">
+    <row r="22" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C22" s="20" t="s">
         <v>208</v>
       </c>
@@ -4662,7 +4691,7 @@
       </c>
       <c r="R22" s="91"/>
     </row>
-    <row r="23" spans="1:23" ht="14">
+    <row r="23" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C23" s="20" t="s">
         <v>209</v>
       </c>
@@ -4689,7 +4718,7 @@
       </c>
       <c r="R23" s="91"/>
     </row>
-    <row r="24" spans="1:23" ht="14">
+    <row r="24" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C24" s="20" t="s">
         <v>209</v>
       </c>
@@ -4716,7 +4745,7 @@
       </c>
       <c r="R24" s="91"/>
     </row>
-    <row r="25" spans="1:23" ht="14">
+    <row r="25" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="12" t="s">
         <v>211</v>
       </c>
@@ -4753,7 +4782,7 @@
       <c r="V25"/>
       <c r="W25"/>
     </row>
-    <row r="26" spans="1:23" ht="14">
+    <row r="26" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A26" s="25" t="s">
         <v>212</v>
       </c>
@@ -4795,7 +4824,7 @@
       <c r="V26"/>
       <c r="W26"/>
     </row>
-    <row r="27" spans="1:23" ht="14">
+    <row r="27" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
         <v>214</v>
       </c>
@@ -4843,7 +4872,7 @@
       <c r="V27"/>
       <c r="W27"/>
     </row>
-    <row r="28" spans="1:23" ht="14">
+    <row r="28" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>183</v>
       </c>
@@ -4885,7 +4914,7 @@
       <c r="V28"/>
       <c r="W28"/>
     </row>
-    <row r="29" spans="1:23" ht="14">
+    <row r="29" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B29"/>
       <c r="C29" s="20" t="s">
         <v>197</v>
@@ -4930,7 +4959,7 @@
       <c r="V29"/>
       <c r="W29"/>
     </row>
-    <row r="30" spans="1:23" ht="14">
+    <row r="30" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B30"/>
       <c r="C30" s="20" t="s">
         <v>216</v>
@@ -4972,7 +5001,7 @@
       <c r="V30"/>
       <c r="W30"/>
     </row>
-    <row r="31" spans="1:23" ht="14">
+    <row r="31" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B31"/>
       <c r="C31" s="20" t="s">
         <v>217</v>
@@ -5011,7 +5040,7 @@
       <c r="V31"/>
       <c r="W31"/>
     </row>
-    <row r="32" spans="1:23" ht="14">
+    <row r="32" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B32"/>
       <c r="C32" s="20" t="s">
         <v>218</v>
@@ -5050,7 +5079,7 @@
       <c r="V32"/>
       <c r="W32"/>
     </row>
-    <row r="33" spans="1:23" ht="14">
+    <row r="33" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B33"/>
       <c r="C33" s="20" t="s">
         <v>207</v>
@@ -5095,7 +5124,7 @@
       <c r="V33"/>
       <c r="W33"/>
     </row>
-    <row r="34" spans="1:23" ht="14">
+    <row r="34" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B34"/>
       <c r="C34" s="20" t="s">
         <v>219</v>
@@ -5133,7 +5162,7 @@
       </c>
       <c r="R34" s="91"/>
     </row>
-    <row r="35" spans="1:23" ht="14">
+    <row r="35" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35"/>
       <c r="C35" s="20" t="s">
@@ -5172,7 +5201,7 @@
       </c>
       <c r="R35" s="91"/>
     </row>
-    <row r="36" spans="1:23" ht="14">
+    <row r="36" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36"/>
       <c r="C36" s="20" t="s">
@@ -5209,7 +5238,7 @@
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
     </row>
-    <row r="37" spans="1:23" ht="14">
+    <row r="37" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37"/>
       <c r="C37" s="20" t="s">
@@ -5246,7 +5275,7 @@
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
     </row>
-    <row r="38" spans="1:23" ht="14">
+    <row r="38" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B38"/>
       <c r="C38" s="20" t="s">
         <v>222</v>
@@ -5282,7 +5311,7 @@
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
     </row>
-    <row r="39" spans="1:23" ht="14">
+    <row r="39" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B39"/>
       <c r="C39" s="20" t="s">
         <v>209</v>
@@ -5317,7 +5346,7 @@
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
     </row>
-    <row r="40" spans="1:23" ht="14">
+    <row r="40" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A40" s="1"/>
       <c r="B40"/>
       <c r="C40" s="20" t="s">
@@ -5356,7 +5385,7 @@
       </c>
       <c r="R40" s="91"/>
     </row>
-    <row r="41" spans="1:23" ht="14">
+    <row r="41" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B41"/>
       <c r="C41" s="20" t="s">
         <v>224</v>
@@ -5394,7 +5423,7 @@
       </c>
       <c r="R41" s="91"/>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="20"/>
       <c r="B42"/>
       <c r="C42" s="28" t="s">
@@ -5423,7 +5452,7 @@
       <c r="P42" s="8"/>
       <c r="R42" s="93"/>
     </row>
-    <row r="43" spans="1:23" ht="14">
+    <row r="43" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A43" s="12" t="s">
         <v>225</v>
       </c>
@@ -5453,7 +5482,7 @@
       </c>
       <c r="R43" s="92"/>
     </row>
-    <row r="44" spans="1:23" ht="14">
+    <row r="44" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="25" t="s">
         <v>212</v>
       </c>
@@ -5503,7 +5532,7 @@
       </c>
       <c r="R44" s="92"/>
     </row>
-    <row r="45" spans="1:23" ht="14">
+    <row r="45" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>214</v>
       </c>
@@ -5538,7 +5567,7 @@
       </c>
       <c r="R45" s="91"/>
     </row>
-    <row r="46" spans="1:23" ht="14">
+    <row r="46" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A46" s="25" t="s">
         <v>226</v>
       </c>
@@ -5576,7 +5605,7 @@
       </c>
       <c r="R46" s="91"/>
     </row>
-    <row r="47" spans="1:23" ht="14">
+    <row r="47" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>227</v>
       </c>
@@ -5614,7 +5643,7 @@
       </c>
       <c r="R47" s="91"/>
     </row>
-    <row r="48" spans="1:23" ht="14">
+    <row r="48" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
         <v>229</v>
       </c>
@@ -5652,7 +5681,7 @@
       </c>
       <c r="R48" s="91"/>
     </row>
-    <row r="49" spans="1:18" ht="14">
+    <row r="49" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B49"/>
       <c r="C49" s="20" t="s">
         <v>216</v>
@@ -5687,7 +5716,7 @@
       </c>
       <c r="R49" s="91"/>
     </row>
-    <row r="50" spans="1:18" ht="14">
+    <row r="50" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>230</v>
       </c>
@@ -5717,7 +5746,7 @@
       <c r="Q50"/>
       <c r="R50" s="91"/>
     </row>
-    <row r="51" spans="1:18" ht="14">
+    <row r="51" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A51" s="25" t="s">
         <v>212</v>
       </c>
@@ -5756,7 +5785,7 @@
       <c r="Q51"/>
       <c r="R51" s="91"/>
     </row>
-    <row r="52" spans="1:18" ht="14">
+    <row r="52" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>214</v>
       </c>
@@ -5795,7 +5824,7 @@
       <c r="Q52"/>
       <c r="R52" s="91"/>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>183</v>
       </c>
@@ -5834,7 +5863,7 @@
       <c r="Q53"/>
       <c r="R53" s="91"/>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B54" s="20"/>
       <c r="C54" s="20" t="s">
         <v>207</v>
@@ -5870,7 +5899,7 @@
       <c r="Q54"/>
       <c r="R54" s="91"/>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B55" s="20"/>
       <c r="C55" s="20" t="s">
         <v>219</v>
@@ -5906,7 +5935,7 @@
       <c r="Q55"/>
       <c r="R55" s="91"/>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B56" s="20"/>
       <c r="C56" s="20" t="s">
         <v>220</v>
@@ -5942,7 +5971,7 @@
       <c r="Q56"/>
       <c r="R56" s="91"/>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B57" s="20"/>
       <c r="C57" s="20" t="s">
         <v>223</v>
@@ -5978,7 +6007,7 @@
       <c r="Q57"/>
       <c r="R57" s="91"/>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B58" s="20"/>
       <c r="C58" s="23" t="s">
         <v>224</v>
@@ -6016,7 +6045,7 @@
       <c r="Q58"/>
       <c r="R58" s="91"/>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" s="55"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44" t="s">
@@ -6049,7 +6078,7 @@
       <c r="Q59" s="57"/>
       <c r="R59" s="94"/>
     </row>
-    <row r="60" spans="1:18" ht="14">
+    <row r="60" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A60" s="21" t="s">
         <v>416</v>
       </c>
@@ -6075,7 +6104,7 @@
       <c r="Q60" s="3"/>
       <c r="R60" s="91"/>
     </row>
-    <row r="61" spans="1:18" ht="14">
+    <row r="61" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A61" s="12" t="s">
         <v>211</v>
       </c>
@@ -6108,7 +6137,7 @@
       <c r="Q61" s="3"/>
       <c r="R61" s="91"/>
     </row>
-    <row r="62" spans="1:18" ht="14">
+    <row r="62" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A62" s="25" t="s">
         <v>212</v>
       </c>
@@ -6143,7 +6172,7 @@
       <c r="Q62" s="3"/>
       <c r="R62" s="91"/>
     </row>
-    <row r="63" spans="1:18" ht="14">
+    <row r="63" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A63" s="11" t="s">
         <v>214</v>
       </c>
@@ -6179,7 +6208,7 @@
       <c r="Q63" s="3"/>
       <c r="R63" s="91"/>
     </row>
-    <row r="64" spans="1:18" ht="14">
+    <row r="64" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>232</v>
       </c>
@@ -6215,7 +6244,7 @@
       <c r="Q64" s="3"/>
       <c r="R64" s="91"/>
     </row>
-    <row r="65" spans="1:18" ht="14">
+    <row r="65" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A65" s="12"/>
       <c r="B65" s="11"/>
       <c r="C65" s="20" t="s">
@@ -6249,7 +6278,7 @@
       <c r="Q65" s="3"/>
       <c r="R65" s="91"/>
     </row>
-    <row r="66" spans="1:18" ht="14">
+    <row r="66" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A66" s="12"/>
       <c r="B66" s="11"/>
       <c r="C66" s="20" t="s">
@@ -6283,7 +6312,7 @@
       <c r="Q66" s="3"/>
       <c r="R66" s="91"/>
     </row>
-    <row r="67" spans="1:18" ht="14">
+    <row r="67" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A67" s="12"/>
       <c r="B67" s="11"/>
       <c r="C67" s="20" t="s">
@@ -6317,7 +6346,7 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="91"/>
     </row>
-    <row r="68" spans="1:18" ht="14">
+    <row r="68" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A68" s="12"/>
       <c r="B68" s="11"/>
       <c r="C68" s="20" t="s">
@@ -6351,7 +6380,7 @@
       <c r="Q68" s="3"/>
       <c r="R68" s="91"/>
     </row>
-    <row r="69" spans="1:18" ht="14">
+    <row r="69" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A69" s="12"/>
       <c r="B69" s="11"/>
       <c r="C69" s="20" t="s">
@@ -6385,7 +6414,7 @@
       <c r="Q69" s="3"/>
       <c r="R69" s="91"/>
     </row>
-    <row r="70" spans="1:18" ht="14">
+    <row r="70" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A70" s="12"/>
       <c r="B70" s="11"/>
       <c r="C70" s="20" t="s">
@@ -6419,7 +6448,7 @@
       <c r="Q70" s="3"/>
       <c r="R70" s="91"/>
     </row>
-    <row r="71" spans="1:18" ht="14">
+    <row r="71" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A71" s="12"/>
       <c r="B71" s="11"/>
       <c r="C71" s="20" t="s">
@@ -6453,7 +6482,7 @@
       <c r="Q71" s="3"/>
       <c r="R71" s="91"/>
     </row>
-    <row r="72" spans="1:18" ht="14">
+    <row r="72" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="12"/>
       <c r="B72" s="11"/>
       <c r="C72" s="20" t="s">
@@ -6487,7 +6516,7 @@
       <c r="Q72" s="3"/>
       <c r="R72" s="91"/>
     </row>
-    <row r="73" spans="1:18" ht="14">
+    <row r="73" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A73" s="12"/>
       <c r="B73" s="11"/>
       <c r="C73" s="20" t="s">
@@ -6521,7 +6550,7 @@
       <c r="Q73" s="3"/>
       <c r="R73" s="91"/>
     </row>
-    <row r="74" spans="1:18" ht="14">
+    <row r="74" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A74" s="12"/>
       <c r="B74" s="11"/>
       <c r="C74" s="20" t="s">
@@ -6555,7 +6584,7 @@
       <c r="Q74" s="3"/>
       <c r="R74" s="91"/>
     </row>
-    <row r="75" spans="1:18" ht="14">
+    <row r="75" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A75" s="12"/>
       <c r="B75" s="11"/>
       <c r="C75" s="20" t="s">
@@ -6589,7 +6618,7 @@
       <c r="Q75" s="3"/>
       <c r="R75" s="91"/>
     </row>
-    <row r="76" spans="1:18" ht="14">
+    <row r="76" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A76" s="12"/>
       <c r="B76" s="11"/>
       <c r="C76" s="20" t="s">
@@ -6623,7 +6652,7 @@
       <c r="Q76" s="3"/>
       <c r="R76" s="91"/>
     </row>
-    <row r="77" spans="1:18" ht="14">
+    <row r="77" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A77" s="12"/>
       <c r="B77" s="11"/>
       <c r="C77" s="20" t="s">
@@ -6657,7 +6686,7 @@
       <c r="Q77" s="3"/>
       <c r="R77" s="91"/>
     </row>
-    <row r="78" spans="1:18" ht="14">
+    <row r="78" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A78" s="59"/>
       <c r="B78" s="60"/>
       <c r="C78" s="61" t="s">
@@ -6687,7 +6716,7 @@
       <c r="Q78" s="63"/>
       <c r="R78" s="94"/>
     </row>
-    <row r="79" spans="1:18" ht="14">
+    <row r="79" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A79" s="21" t="s">
         <v>417</v>
       </c>
@@ -6699,7 +6728,7 @@
       </c>
       <c r="R79" s="91"/>
     </row>
-    <row r="80" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="80" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A80" s="12" t="s">
         <v>233</v>
       </c>
@@ -6736,7 +6765,7 @@
       <c r="P80" s="27"/>
       <c r="R80" s="95"/>
     </row>
-    <row r="81" spans="1:18" ht="14">
+    <row r="81" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A81" s="25" t="s">
         <v>234</v>
       </c>
@@ -6776,7 +6805,7 @@
       </c>
       <c r="R81" s="92"/>
     </row>
-    <row r="82" spans="1:18" ht="14">
+    <row r="82" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>227</v>
       </c>
@@ -6813,7 +6842,7 @@
       </c>
       <c r="R82" s="92"/>
     </row>
-    <row r="83" spans="1:18" ht="14">
+    <row r="83" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
         <v>229</v>
       </c>
@@ -6851,7 +6880,7 @@
       </c>
       <c r="R83" s="92"/>
     </row>
-    <row r="84" spans="1:18" ht="14">
+    <row r="84" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A84" s="12" t="s">
         <v>236</v>
       </c>
@@ -6889,7 +6918,7 @@
       </c>
       <c r="R84" s="92"/>
     </row>
-    <row r="85" spans="1:18" ht="14">
+    <row r="85" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A85" s="25" t="s">
         <v>234</v>
       </c>
@@ -6930,7 +6959,7 @@
       </c>
       <c r="R85" s="92"/>
     </row>
-    <row r="86" spans="1:18" ht="14">
+    <row r="86" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A86" s="11" t="s">
         <v>227</v>
       </c>
@@ -6968,7 +6997,7 @@
       </c>
       <c r="R86" s="92"/>
     </row>
-    <row r="87" spans="1:18" ht="14">
+    <row r="87" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
         <v>229</v>
       </c>
@@ -7006,7 +7035,7 @@
       </c>
       <c r="R87" s="92"/>
     </row>
-    <row r="88" spans="1:18" ht="14">
+    <row r="88" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B88"/>
       <c r="C88" s="20" t="s">
         <v>184</v>
@@ -7041,7 +7070,7 @@
       </c>
       <c r="R88" s="92"/>
     </row>
-    <row r="89" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="89" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A89" s="12" t="s">
         <v>237</v>
       </c>
@@ -7073,7 +7102,7 @@
       <c r="P89" s="27"/>
       <c r="R89" s="92"/>
     </row>
-    <row r="90" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="90" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A90" s="33" t="s">
         <v>238</v>
       </c>
@@ -7115,7 +7144,7 @@
       <c r="P90" s="30"/>
       <c r="R90" s="92"/>
     </row>
-    <row r="91" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="91" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A91" s="11" t="s">
         <v>422</v>
       </c>
@@ -7157,7 +7186,7 @@
       <c r="P91" s="30"/>
       <c r="R91" s="92"/>
     </row>
-    <row r="92" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="92" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
@@ -7195,7 +7224,7 @@
       <c r="P92" s="30"/>
       <c r="R92" s="92"/>
     </row>
-    <row r="93" spans="1:18" ht="14">
+    <row r="93" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B93"/>
       <c r="C93" t="s">
         <v>179</v>
@@ -7232,7 +7261,7 @@
       <c r="P93" s="30"/>
       <c r="R93" s="92"/>
     </row>
-    <row r="94" spans="1:18" ht="14">
+    <row r="94" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B94"/>
       <c r="C94" s="31" t="s">
         <v>197</v>
@@ -7267,7 +7296,7 @@
       <c r="P94" s="30"/>
       <c r="R94" s="92"/>
     </row>
-    <row r="95" spans="1:18" ht="14">
+    <row r="95" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B95"/>
       <c r="C95" s="31" t="s">
         <v>197</v>
@@ -7302,7 +7331,7 @@
       <c r="P95" s="30"/>
       <c r="R95" s="92"/>
     </row>
-    <row r="96" spans="1:18" ht="14">
+    <row r="96" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B96"/>
       <c r="C96" s="31" t="s">
         <v>197</v>
@@ -7341,7 +7370,7 @@
       <c r="P96" s="30"/>
       <c r="R96" s="92"/>
     </row>
-    <row r="97" spans="1:27" ht="14">
+    <row r="97" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B97"/>
       <c r="C97" t="s">
         <v>239</v>
@@ -7374,7 +7403,7 @@
       <c r="P97" s="30"/>
       <c r="R97" s="91"/>
     </row>
-    <row r="98" spans="1:27" ht="14">
+    <row r="98" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B98"/>
       <c r="C98" t="s">
         <v>240</v>
@@ -7407,7 +7436,7 @@
       <c r="P98" s="30"/>
       <c r="R98" s="91"/>
     </row>
-    <row r="99" spans="1:27" ht="14">
+    <row r="99" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B99"/>
       <c r="C99" t="s">
         <v>240</v>
@@ -7440,7 +7469,7 @@
       <c r="P99" s="30"/>
       <c r="R99" s="91"/>
     </row>
-    <row r="100" spans="1:27" ht="14">
+    <row r="100" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A100" s="1"/>
       <c r="B100"/>
       <c r="C100" t="s">
@@ -7474,7 +7503,7 @@
       <c r="P100" s="30"/>
       <c r="R100" s="91"/>
     </row>
-    <row r="101" spans="1:27" ht="14">
+    <row r="101" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B101"/>
       <c r="C101" s="20" t="s">
         <v>242</v>
@@ -7507,7 +7536,7 @@
       <c r="P101" s="30"/>
       <c r="R101" s="91"/>
     </row>
-    <row r="102" spans="1:27" ht="14">
+    <row r="102" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A102" s="1"/>
       <c r="B102"/>
       <c r="C102" s="20" t="s">
@@ -7541,7 +7570,7 @@
       <c r="P102" s="30"/>
       <c r="R102" s="91"/>
     </row>
-    <row r="103" spans="1:27" ht="14">
+    <row r="103" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B103"/>
       <c r="C103" s="20" t="s">
         <v>243</v>
@@ -7574,7 +7603,7 @@
       <c r="P103" s="30"/>
       <c r="R103" s="91"/>
     </row>
-    <row r="104" spans="1:27" ht="14">
+    <row r="104" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B104"/>
       <c r="C104" t="s">
         <v>244</v>
@@ -7607,7 +7636,7 @@
       <c r="P104" s="30"/>
       <c r="R104" s="91"/>
     </row>
-    <row r="105" spans="1:27" ht="14">
+    <row r="105" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="1"/>
       <c r="B105"/>
       <c r="C105" s="3" t="s">
@@ -7643,7 +7672,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="14">
+    <row r="106" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="1"/>
       <c r="B106"/>
       <c r="C106" s="3" t="s">
@@ -7688,7 +7717,7 @@
       <c r="Z106"/>
       <c r="AA106"/>
     </row>
-    <row r="107" spans="1:27" ht="14">
+    <row r="107" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A107" s="11" t="s">
         <v>247</v>
       </c>
@@ -7733,7 +7762,7 @@
       <c r="Z107"/>
       <c r="AA107"/>
     </row>
-    <row r="108" spans="1:27" ht="14">
+    <row r="108" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A108" s="25" t="s">
         <v>234</v>
       </c>
@@ -7784,7 +7813,7 @@
       <c r="Z108"/>
       <c r="AA108"/>
     </row>
-    <row r="109" spans="1:27" ht="14">
+    <row r="109" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A109" s="11" t="s">
         <v>227</v>
       </c>
@@ -7835,7 +7864,7 @@
       <c r="Z109"/>
       <c r="AA109"/>
     </row>
-    <row r="110" spans="1:27" ht="14">
+    <row r="110" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
         <v>229</v>
       </c>
@@ -7886,7 +7915,7 @@
       <c r="Z110"/>
       <c r="AA110"/>
     </row>
-    <row r="111" spans="1:27" ht="14">
+    <row r="111" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B111"/>
       <c r="C111" s="31" t="s">
         <v>248</v>
@@ -7934,7 +7963,7 @@
       <c r="Z111"/>
       <c r="AA111"/>
     </row>
-    <row r="112" spans="1:27" ht="14">
+    <row r="112" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C112" s="31" t="s">
         <v>243</v>
       </c>
@@ -7981,7 +8010,7 @@
       <c r="Z112"/>
       <c r="AA112"/>
     </row>
-    <row r="113" spans="1:27" ht="14">
+    <row r="113" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C113" s="31" t="s">
         <v>243</v>
       </c>
@@ -8028,7 +8057,7 @@
       <c r="Z113"/>
       <c r="AA113"/>
     </row>
-    <row r="114" spans="1:27" ht="14">
+    <row r="114" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C114" s="31" t="s">
         <v>243</v>
       </c>
@@ -8075,7 +8104,7 @@
       <c r="Z114"/>
       <c r="AA114"/>
     </row>
-    <row r="115" spans="1:27" ht="14">
+    <row r="115" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C115" s="31" t="s">
         <v>244</v>
       </c>
@@ -8122,7 +8151,7 @@
       <c r="Z115"/>
       <c r="AA115"/>
     </row>
-    <row r="116" spans="1:27" ht="14">
+    <row r="116" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C116" s="31" t="s">
         <v>244</v>
       </c>
@@ -8169,7 +8198,7 @@
       <c r="Z116"/>
       <c r="AA116"/>
     </row>
-    <row r="117" spans="1:27" ht="14">
+    <row r="117" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C117" s="31" t="s">
         <v>249</v>
       </c>
@@ -8216,7 +8245,7 @@
       <c r="Z117"/>
       <c r="AA117"/>
     </row>
-    <row r="118" spans="1:27" ht="14">
+    <row r="118" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C118" s="31" t="s">
         <v>249</v>
       </c>
@@ -8263,7 +8292,7 @@
       <c r="Z118"/>
       <c r="AA118"/>
     </row>
-    <row r="119" spans="1:27" ht="14">
+    <row r="119" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A119" s="55"/>
       <c r="B119" s="55"/>
       <c r="C119" s="64" t="s">
@@ -8312,7 +8341,7 @@
       <c r="Z119"/>
       <c r="AA119"/>
     </row>
-    <row r="120" spans="1:27" ht="14">
+    <row r="120" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A120" s="21" t="s">
         <v>418</v>
       </c>
@@ -8346,7 +8375,7 @@
       <c r="Z120"/>
       <c r="AA120"/>
     </row>
-    <row r="121" spans="1:27" ht="14">
+    <row r="121" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A121" s="11" t="s">
         <v>251</v>
       </c>
@@ -8392,7 +8421,7 @@
       <c r="Z121"/>
       <c r="AA121"/>
     </row>
-    <row r="122" spans="1:27" ht="14">
+    <row r="122" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A122" s="25" t="s">
         <v>212</v>
       </c>
@@ -8435,7 +8464,7 @@
       <c r="Z122"/>
       <c r="AA122"/>
     </row>
-    <row r="123" spans="1:27" ht="14">
+    <row r="123" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A123" s="11" t="s">
         <v>214</v>
       </c>
@@ -8478,7 +8507,7 @@
       <c r="Z123"/>
       <c r="AA123"/>
     </row>
-    <row r="124" spans="1:27" ht="14">
+    <row r="124" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -8521,7 +8550,7 @@
       <c r="Z124"/>
       <c r="AA124"/>
     </row>
-    <row r="125" spans="1:27" ht="14">
+    <row r="125" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C125" s="20" t="s">
         <v>235</v>
       </c>
@@ -8561,7 +8590,7 @@
       <c r="Z125"/>
       <c r="AA125"/>
     </row>
-    <row r="126" spans="1:27" ht="14">
+    <row r="126" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C126" s="20" t="s">
         <v>240</v>
       </c>
@@ -8601,7 +8630,7 @@
       <c r="Z126"/>
       <c r="AA126"/>
     </row>
-    <row r="127" spans="1:27" ht="14">
+    <row r="127" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A127" s="1"/>
       <c r="C127" s="20" t="s">
         <v>242</v>
@@ -8642,7 +8671,7 @@
       <c r="Z127"/>
       <c r="AA127"/>
     </row>
-    <row r="128" spans="1:27" ht="14">
+    <row r="128" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C128" s="20" t="s">
         <v>243</v>
       </c>
@@ -8682,7 +8711,7 @@
       <c r="Z128"/>
       <c r="AA128"/>
     </row>
-    <row r="129" spans="1:27" ht="14">
+    <row r="129" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C129" s="20" t="s">
         <v>244</v>
       </c>
@@ -8722,7 +8751,7 @@
       <c r="Z129"/>
       <c r="AA129"/>
     </row>
-    <row r="130" spans="1:27" ht="14">
+    <row r="130" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C130" s="20" t="s">
         <v>248</v>
       </c>
@@ -8762,7 +8791,7 @@
       <c r="Z130"/>
       <c r="AA130"/>
     </row>
-    <row r="131" spans="1:27" ht="14">
+    <row r="131" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A131" s="55"/>
       <c r="B131" s="55"/>
       <c r="C131" s="44" t="s">
@@ -8811,7 +8840,7 @@
       <c r="Z131"/>
       <c r="AA131"/>
     </row>
-    <row r="132" spans="1:27" ht="14">
+    <row r="132" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A132" s="21" t="s">
         <v>419</v>
       </c>
@@ -8832,7 +8861,7 @@
       <c r="Z132"/>
       <c r="AA132"/>
     </row>
-    <row r="133" spans="1:27" s="12" customFormat="1" ht="14">
+    <row r="133" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A133" s="12" t="s">
         <v>253</v>
       </c>
@@ -8875,7 +8904,7 @@
       <c r="Z133"/>
       <c r="AA133"/>
     </row>
-    <row r="134" spans="1:27" s="12" customFormat="1" ht="14">
+    <row r="134" spans="1:27" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A134" s="33" t="s">
         <v>254</v>
       </c>
@@ -8912,7 +8941,7 @@
       <c r="P134" s="30"/>
       <c r="R134" s="95"/>
     </row>
-    <row r="135" spans="1:27" ht="14">
+    <row r="135" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A135" s="11" t="s">
         <v>227</v>
       </c>
@@ -8952,7 +8981,7 @@
       <c r="U135" s="12"/>
       <c r="V135" s="12"/>
     </row>
-    <row r="136" spans="1:27" ht="14">
+    <row r="136" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
         <v>246</v>
       </c>
@@ -8989,7 +9018,7 @@
       <c r="P136" s="30"/>
       <c r="R136" s="91"/>
     </row>
-    <row r="137" spans="1:27" ht="14">
+    <row r="137" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C137" s="28" t="s">
         <v>257</v>
       </c>
@@ -9023,7 +9052,7 @@
       <c r="P137" s="30"/>
       <c r="R137" s="91"/>
     </row>
-    <row r="138" spans="1:27" ht="14">
+    <row r="138" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C138" s="28" t="s">
         <v>258</v>
       </c>
@@ -9057,7 +9086,7 @@
       <c r="P138" s="30"/>
       <c r="R138" s="91"/>
     </row>
-    <row r="139" spans="1:27" ht="14">
+    <row r="139" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C139" s="28" t="s">
         <v>259</v>
       </c>
@@ -9091,7 +9120,7 @@
       <c r="P139" s="30"/>
       <c r="R139" s="91"/>
     </row>
-    <row r="140" spans="1:27" ht="14">
+    <row r="140" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C140" s="28" t="s">
         <v>260</v>
       </c>
@@ -9125,7 +9154,7 @@
       <c r="P140" s="30"/>
       <c r="R140" s="91"/>
     </row>
-    <row r="141" spans="1:27" ht="14">
+    <row r="141" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C141" s="28" t="s">
         <v>260</v>
       </c>
@@ -9159,7 +9188,7 @@
       <c r="P141" s="30"/>
       <c r="R141" s="91"/>
     </row>
-    <row r="142" spans="1:27" ht="14">
+    <row r="142" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C142" s="28" t="s">
         <v>261</v>
       </c>
@@ -9193,7 +9222,7 @@
       <c r="P142" s="30"/>
       <c r="R142" s="91"/>
     </row>
-    <row r="143" spans="1:27" ht="14">
+    <row r="143" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C143" s="28" t="s">
         <v>261</v>
       </c>
@@ -9227,7 +9256,7 @@
       <c r="P143" s="30"/>
       <c r="R143" s="91"/>
     </row>
-    <row r="144" spans="1:27" ht="14">
+    <row r="144" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C144" s="28" t="s">
         <v>262</v>
       </c>
@@ -9261,7 +9290,7 @@
       <c r="P144" s="30"/>
       <c r="R144" s="91"/>
     </row>
-    <row r="145" spans="1:18" ht="14">
+    <row r="145" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C145" s="28" t="s">
         <v>263</v>
       </c>
@@ -9295,7 +9324,7 @@
       <c r="P145" s="30"/>
       <c r="R145" s="91"/>
     </row>
-    <row r="146" spans="1:18" ht="14">
+    <row r="146" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A146" s="1"/>
       <c r="C146" s="3" t="s">
         <v>264</v>
@@ -9330,7 +9359,7 @@
       <c r="P146" s="30"/>
       <c r="R146" s="91"/>
     </row>
-    <row r="147" spans="1:18" ht="14">
+    <row r="147" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A147" s="1"/>
       <c r="C147" s="28" t="s">
         <v>265</v>
@@ -9365,7 +9394,7 @@
       <c r="P147" s="30"/>
       <c r="R147" s="91"/>
     </row>
-    <row r="148" spans="1:18" ht="14">
+    <row r="148" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C148" s="28" t="s">
         <v>266</v>
       </c>
@@ -9399,7 +9428,7 @@
       <c r="P148" s="30"/>
       <c r="R148" s="91"/>
     </row>
-    <row r="149" spans="1:18" ht="14">
+    <row r="149" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C149" s="28" t="s">
         <v>243</v>
       </c>
@@ -9433,7 +9462,7 @@
       <c r="P149" s="30"/>
       <c r="R149" s="91"/>
     </row>
-    <row r="150" spans="1:18" ht="14">
+    <row r="150" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C150" s="28" t="s">
         <v>267</v>
       </c>
@@ -9467,7 +9496,7 @@
       <c r="P150" s="30"/>
       <c r="R150" s="91"/>
     </row>
-    <row r="151" spans="1:18" ht="14">
+    <row r="151" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C151" s="28" t="s">
         <v>268</v>
       </c>
@@ -9501,7 +9530,7 @@
       <c r="P151" s="30"/>
       <c r="R151" s="91"/>
     </row>
-    <row r="152" spans="1:18" ht="14">
+    <row r="152" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C152" s="28" t="s">
         <v>269</v>
       </c>
@@ -9537,7 +9566,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="14">
+    <row r="153" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A153" s="1"/>
       <c r="C153" s="28" t="s">
         <v>270</v>
@@ -9574,7 +9603,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="14">
+    <row r="154" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C154" s="28" t="s">
         <v>271</v>
       </c>
@@ -9610,7 +9639,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="14">
+    <row r="155" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C155" s="28" t="s">
         <v>272</v>
       </c>
@@ -9646,7 +9675,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="14">
+    <row r="156" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C156" s="28" t="s">
         <v>273</v>
       </c>
@@ -9682,7 +9711,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="14">
+    <row r="157" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C157" s="28" t="s">
         <v>274</v>
       </c>
@@ -9718,7 +9747,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="14">
+    <row r="158" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C158" s="28" t="s">
         <v>275</v>
       </c>
@@ -9754,7 +9783,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="14">
+    <row r="159" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A159" s="55"/>
       <c r="B159" s="55"/>
       <c r="C159" s="71" t="s">
@@ -9793,7 +9822,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="14">
+    <row r="160" spans="1:18" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A160" s="21" t="s">
         <v>420</v>
       </c>
@@ -9805,7 +9834,7 @@
       </c>
       <c r="R160" s="91"/>
     </row>
-    <row r="161" spans="1:18" s="12" customFormat="1" ht="14">
+    <row r="161" spans="1:18" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A161" s="11" t="s">
         <v>276</v>
       </c>
@@ -9839,7 +9868,7 @@
       <c r="P161" s="27"/>
       <c r="R161" s="95"/>
     </row>
-    <row r="162" spans="1:18" ht="14">
+    <row r="162" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A162" s="25" t="s">
         <v>277</v>
       </c>
@@ -9873,7 +9902,7 @@
       </c>
       <c r="R162" s="91"/>
     </row>
-    <row r="163" spans="1:18" ht="14">
+    <row r="163" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A163" s="11" t="s">
         <v>214</v>
       </c>
@@ -9907,7 +9936,7 @@
       </c>
       <c r="R163" s="91"/>
     </row>
-    <row r="164" spans="1:18" ht="14">
+    <row r="164" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
         <v>183</v>
       </c>
@@ -9941,7 +9970,7 @@
       </c>
       <c r="R164" s="91"/>
     </row>
-    <row r="165" spans="1:18" ht="14">
+    <row r="165" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C165" s="20" t="s">
         <v>280</v>
       </c>
@@ -9972,7 +10001,7 @@
       </c>
       <c r="R165" s="91"/>
     </row>
-    <row r="166" spans="1:18" ht="14">
+    <row r="166" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C166" s="20" t="s">
         <v>216</v>
       </c>
@@ -10003,7 +10032,7 @@
       </c>
       <c r="R166" s="91"/>
     </row>
-    <row r="167" spans="1:18" ht="14">
+    <row r="167" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C167" t="s">
         <v>217</v>
       </c>
@@ -10034,7 +10063,7 @@
       </c>
       <c r="R167" s="91"/>
     </row>
-    <row r="168" spans="1:18" ht="14">
+    <row r="168" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C168" t="s">
         <v>263</v>
       </c>
@@ -10065,7 +10094,7 @@
       </c>
       <c r="R168" s="91"/>
     </row>
-    <row r="169" spans="1:18" ht="14">
+    <row r="169" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C169" t="s">
         <v>281</v>
       </c>
@@ -10096,7 +10125,7 @@
       </c>
       <c r="R169" s="91"/>
     </row>
-    <row r="170" spans="1:18" ht="14">
+    <row r="170" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C170" s="3" t="s">
         <v>207</v>
       </c>
@@ -10128,7 +10157,7 @@
       </c>
       <c r="R170" s="91"/>
     </row>
-    <row r="171" spans="1:18" ht="14">
+    <row r="171" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C171" t="s">
         <v>219</v>
       </c>
@@ -10159,7 +10188,7 @@
       </c>
       <c r="R171" s="91"/>
     </row>
-    <row r="172" spans="1:18" ht="14">
+    <row r="172" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C172" t="s">
         <v>282</v>
       </c>
@@ -10190,7 +10219,7 @@
       </c>
       <c r="R172" s="91"/>
     </row>
-    <row r="173" spans="1:18" ht="14">
+    <row r="173" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C173" t="s">
         <v>220</v>
       </c>
@@ -10221,7 +10250,7 @@
       </c>
       <c r="R173" s="91"/>
     </row>
-    <row r="174" spans="1:18" ht="14">
+    <row r="174" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C174" t="s">
         <v>283</v>
       </c>
@@ -10252,7 +10281,7 @@
       </c>
       <c r="R174" s="91"/>
     </row>
-    <row r="175" spans="1:18" ht="14">
+    <row r="175" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A175" s="1"/>
       <c r="C175" t="s">
         <v>284</v>
@@ -10284,7 +10313,7 @@
       </c>
       <c r="R175" s="91"/>
     </row>
-    <row r="176" spans="1:18" ht="14">
+    <row r="176" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C176" t="s">
         <v>249</v>
       </c>
@@ -10315,7 +10344,7 @@
       </c>
       <c r="R176" s="91"/>
     </row>
-    <row r="177" spans="1:23" ht="14">
+    <row r="177" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B177" s="20"/>
       <c r="C177" t="s">
         <v>285</v>
@@ -10347,7 +10376,7 @@
       </c>
       <c r="R177" s="91"/>
     </row>
-    <row r="178" spans="1:23" ht="14">
+    <row r="178" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A178" s="1"/>
       <c r="C178" t="s">
         <v>286</v>
@@ -10379,7 +10408,7 @@
       </c>
       <c r="R178" s="91"/>
     </row>
-    <row r="179" spans="1:23" ht="14">
+    <row r="179" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C179" t="s">
         <v>287</v>
       </c>
@@ -10410,7 +10439,7 @@
       </c>
       <c r="R179" s="91"/>
     </row>
-    <row r="180" spans="1:23" ht="14">
+    <row r="180" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A180" s="72"/>
       <c r="B180" s="55"/>
       <c r="C180" s="57" t="s">
@@ -10450,7 +10479,7 @@
       <c r="Q180" s="44"/>
       <c r="R180" s="94"/>
     </row>
-    <row r="181" spans="1:23" ht="14">
+    <row r="181" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A181" s="21" t="s">
         <v>421</v>
       </c>
@@ -10466,7 +10495,7 @@
       <c r="Q181" s="3"/>
       <c r="R181" s="92"/>
     </row>
-    <row r="182" spans="1:23" s="12" customFormat="1" ht="14">
+    <row r="182" spans="1:23" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A182" s="11" t="s">
         <v>290</v>
       </c>
@@ -10501,7 +10530,7 @@
       <c r="Q182"/>
       <c r="R182" s="92"/>
     </row>
-    <row r="183" spans="1:23" ht="14">
+    <row r="183" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A183" s="25" t="s">
         <v>370</v>
       </c>
@@ -10543,7 +10572,7 @@
       <c r="R183" s="92"/>
       <c r="W183"/>
     </row>
-    <row r="184" spans="1:23" ht="14">
+    <row r="184" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A184" s="11" t="s">
         <v>214</v>
       </c>
@@ -10587,7 +10616,7 @@
       </c>
       <c r="W184"/>
     </row>
-    <row r="185" spans="1:23" ht="14">
+    <row r="185" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
         <v>246</v>
       </c>
@@ -10631,7 +10660,7 @@
       </c>
       <c r="W185"/>
     </row>
-    <row r="186" spans="1:23" ht="14">
+    <row r="186" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A186" s="1"/>
       <c r="C186" t="s">
         <v>287</v>
@@ -10673,7 +10702,7 @@
       </c>
       <c r="W186"/>
     </row>
-    <row r="187" spans="1:23" ht="14">
+    <row r="187" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A187" s="1"/>
       <c r="C187" t="s">
         <v>296</v>
@@ -10715,7 +10744,7 @@
       </c>
       <c r="W187"/>
     </row>
-    <row r="188" spans="1:23" ht="14">
+    <row r="188" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A188" s="11" t="s">
         <v>295</v>
       </c>
@@ -10729,7 +10758,7 @@
       <c r="Q188"/>
       <c r="R188" s="92"/>
     </row>
-    <row r="189" spans="1:23" s="12" customFormat="1" ht="14">
+    <row r="189" spans="1:23" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="33" t="s">
         <v>298</v>
       </c>
@@ -10757,7 +10786,7 @@
       <c r="Q189"/>
       <c r="R189" s="92"/>
     </row>
-    <row r="190" spans="1:23" ht="14">
+    <row r="190" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" t="s">
@@ -10788,7 +10817,7 @@
       <c r="Q190"/>
       <c r="R190" s="92"/>
     </row>
-    <row r="191" spans="1:23" ht="14">
+    <row r="191" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" t="s">
@@ -10819,7 +10848,7 @@
       <c r="Q191"/>
       <c r="R191" s="92"/>
     </row>
-    <row r="192" spans="1:23" ht="14">
+    <row r="192" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" t="s">
@@ -10850,7 +10879,7 @@
       <c r="Q192"/>
       <c r="R192" s="92"/>
     </row>
-    <row r="193" spans="1:18" ht="14">
+    <row r="193" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" t="s">
@@ -10881,7 +10910,7 @@
       <c r="Q193"/>
       <c r="R193" s="92"/>
     </row>
-    <row r="194" spans="1:18" ht="14">
+    <row r="194" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" t="s">
@@ -10912,7 +10941,7 @@
       <c r="Q194"/>
       <c r="R194" s="92"/>
     </row>
-    <row r="195" spans="1:18" ht="14">
+    <row r="195" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" t="s">
@@ -10943,7 +10972,7 @@
       <c r="Q195"/>
       <c r="R195" s="92"/>
     </row>
-    <row r="196" spans="1:18" ht="14">
+    <row r="196" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" t="s">
@@ -10974,7 +11003,7 @@
       <c r="Q196"/>
       <c r="R196" s="92"/>
     </row>
-    <row r="197" spans="1:18" ht="14">
+    <row r="197" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" t="s">
@@ -11005,7 +11034,7 @@
       <c r="Q197"/>
       <c r="R197" s="92"/>
     </row>
-    <row r="198" spans="1:18" ht="14">
+    <row r="198" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" t="s">
@@ -11036,7 +11065,7 @@
       <c r="Q198"/>
       <c r="R198" s="92"/>
     </row>
-    <row r="199" spans="1:18" ht="14">
+    <row r="199" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" t="s">
@@ -11067,7 +11096,7 @@
       <c r="Q199"/>
       <c r="R199" s="92"/>
     </row>
-    <row r="200" spans="1:18" ht="14">
+    <row r="200" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" t="s">
@@ -11098,7 +11127,7 @@
       <c r="Q200"/>
       <c r="R200" s="92"/>
     </row>
-    <row r="201" spans="1:18" ht="14">
+    <row r="201" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" t="s">
@@ -11129,7 +11158,7 @@
       <c r="Q201"/>
       <c r="R201" s="92"/>
     </row>
-    <row r="202" spans="1:18" ht="14">
+    <row r="202" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" t="s">
@@ -11160,7 +11189,7 @@
       <c r="Q202"/>
       <c r="R202" s="92"/>
     </row>
-    <row r="203" spans="1:18" ht="14">
+    <row r="203" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" t="s">
@@ -11191,7 +11220,7 @@
       <c r="Q203"/>
       <c r="R203" s="92"/>
     </row>
-    <row r="204" spans="1:18" ht="14">
+    <row r="204" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" t="s">
@@ -11222,7 +11251,7 @@
       <c r="Q204"/>
       <c r="R204" s="92"/>
     </row>
-    <row r="205" spans="1:18" ht="14">
+    <row r="205" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" t="s">
@@ -11253,7 +11282,7 @@
       <c r="Q205"/>
       <c r="R205" s="92"/>
     </row>
-    <row r="206" spans="1:18" ht="14">
+    <row r="206" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="1" t="s">
@@ -11284,7 +11313,7 @@
       <c r="Q206"/>
       <c r="R206" s="92"/>
     </row>
-    <row r="207" spans="1:18" ht="14">
+    <row r="207" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" t="s">
@@ -11315,7 +11344,7 @@
       <c r="Q207"/>
       <c r="R207" s="92"/>
     </row>
-    <row r="208" spans="1:18" ht="14">
+    <row r="208" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B208" s="20"/>
       <c r="C208" s="1" t="s">
         <v>314</v>
@@ -11345,7 +11374,7 @@
       <c r="Q208"/>
       <c r="R208" s="92"/>
     </row>
-    <row r="209" spans="1:18" ht="14">
+    <row r="209" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C209" s="1" t="s">
         <v>280</v>
       </c>
@@ -11371,7 +11400,7 @@
       <c r="Q209"/>
       <c r="R209" s="92"/>
     </row>
-    <row r="210" spans="1:18" ht="14">
+    <row r="210" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C210" s="1" t="s">
         <v>315</v>
       </c>
@@ -11397,7 +11426,7 @@
       <c r="Q210"/>
       <c r="R210" s="92"/>
     </row>
-    <row r="211" spans="1:18" ht="14">
+    <row r="211" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B211" s="20"/>
       <c r="C211" s="1" t="s">
         <v>262</v>
@@ -11427,7 +11456,7 @@
       <c r="Q211"/>
       <c r="R211" s="92"/>
     </row>
-    <row r="212" spans="1:18" ht="14">
+    <row r="212" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B212" s="20"/>
       <c r="C212" s="1" t="s">
         <v>316</v>
@@ -11454,7 +11483,7 @@
       <c r="Q212"/>
       <c r="R212" s="92"/>
     </row>
-    <row r="213" spans="1:18" ht="14">
+    <row r="213" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B213" s="20"/>
       <c r="C213" s="1" t="s">
         <v>317</v>
@@ -11481,7 +11510,7 @@
       <c r="Q213"/>
       <c r="R213" s="92"/>
     </row>
-    <row r="214" spans="1:18" ht="14">
+    <row r="214" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B214" s="20"/>
       <c r="C214" s="1" t="s">
         <v>281</v>
@@ -11510,7 +11539,7 @@
       <c r="Q214"/>
       <c r="R214" s="92"/>
     </row>
-    <row r="215" spans="1:18" ht="14">
+    <row r="215" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B215" s="20"/>
       <c r="C215" s="1" t="s">
         <v>318</v>
@@ -11537,7 +11566,7 @@
       <c r="Q215"/>
       <c r="R215" s="92"/>
     </row>
-    <row r="216" spans="1:18" ht="14">
+    <row r="216" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" t="s">
@@ -11565,7 +11594,7 @@
       <c r="Q216"/>
       <c r="R216" s="92"/>
     </row>
-    <row r="217" spans="1:18" ht="14">
+    <row r="217" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" t="s">
@@ -11595,7 +11624,7 @@
       <c r="Q217"/>
       <c r="R217" s="92"/>
     </row>
-    <row r="218" spans="1:18" ht="14">
+    <row r="218" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" t="s">
@@ -11623,7 +11652,7 @@
       <c r="Q218"/>
       <c r="R218" s="92"/>
     </row>
-    <row r="219" spans="1:18" ht="14">
+    <row r="219" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A219" s="20"/>
       <c r="C219" t="s">
         <v>320</v>
@@ -11650,7 +11679,7 @@
       <c r="Q219"/>
       <c r="R219" s="92"/>
     </row>
-    <row r="220" spans="1:18" ht="14">
+    <row r="220" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A220" s="20"/>
       <c r="C220" t="s">
         <v>218</v>
@@ -11680,7 +11709,7 @@
       <c r="Q220"/>
       <c r="R220" s="92"/>
     </row>
-    <row r="221" spans="1:18" ht="14">
+    <row r="221" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A221" s="20"/>
       <c r="C221" t="s">
         <v>321</v>
@@ -11709,7 +11738,7 @@
       <c r="Q221"/>
       <c r="R221" s="92"/>
     </row>
-    <row r="222" spans="1:18" ht="14">
+    <row r="222" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A222" s="20"/>
       <c r="C222" t="s">
         <v>207</v>
@@ -11738,7 +11767,7 @@
       <c r="Q222"/>
       <c r="R222" s="92"/>
     </row>
-    <row r="223" spans="1:18" ht="14">
+    <row r="223" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A223" s="20"/>
       <c r="C223" t="s">
         <v>322</v>
@@ -11765,7 +11794,7 @@
       <c r="Q223"/>
       <c r="R223" s="92"/>
     </row>
-    <row r="224" spans="1:18" ht="14">
+    <row r="224" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A224" s="20"/>
       <c r="C224" t="s">
         <v>323</v>
@@ -11792,7 +11821,7 @@
       <c r="Q224"/>
       <c r="R224" s="92"/>
     </row>
-    <row r="225" spans="1:18" ht="14">
+    <row r="225" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A225" s="20"/>
       <c r="C225" t="s">
         <v>324</v>
@@ -11819,7 +11848,7 @@
       <c r="Q225"/>
       <c r="R225" s="92"/>
     </row>
-    <row r="226" spans="1:18" ht="14">
+    <row r="226" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A226" s="20"/>
       <c r="C226" t="s">
         <v>325</v>
@@ -11848,7 +11877,7 @@
       <c r="Q226"/>
       <c r="R226" s="92"/>
     </row>
-    <row r="227" spans="1:18" ht="14">
+    <row r="227" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A227" s="20"/>
       <c r="C227" t="s">
         <v>326</v>
@@ -11875,7 +11904,7 @@
       <c r="Q227"/>
       <c r="R227" s="92"/>
     </row>
-    <row r="228" spans="1:18" ht="14">
+    <row r="228" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A228" s="20"/>
       <c r="C228" t="s">
         <v>327</v>
@@ -11906,7 +11935,7 @@
       <c r="Q228"/>
       <c r="R228" s="92"/>
     </row>
-    <row r="229" spans="1:18" ht="14">
+    <row r="229" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A229" s="20"/>
       <c r="C229" t="s">
         <v>328</v>
@@ -11935,7 +11964,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="14">
+    <row r="230" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A230" s="20"/>
       <c r="C230" t="s">
         <v>292</v>
@@ -11966,7 +11995,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="14">
+    <row r="231" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A231" s="20"/>
       <c r="C231" t="s">
         <v>330</v>
@@ -11995,7 +12024,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="14">
+    <row r="232" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A232" s="20"/>
       <c r="C232" t="s">
         <v>331</v>
@@ -12024,7 +12053,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="14">
+    <row r="233" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" t="s">
@@ -12054,7 +12083,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="14">
+    <row r="234" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A234" s="20"/>
       <c r="C234" s="1" t="s">
         <v>335</v>
@@ -12083,7 +12112,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="14">
+    <row r="235" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A235" s="20"/>
       <c r="C235" s="1" t="s">
         <v>293</v>
@@ -12114,7 +12143,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="14">
+    <row r="236" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A236" s="20"/>
       <c r="C236" t="s">
         <v>337</v>
@@ -12143,7 +12172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="14">
+    <row r="237" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A237" s="20"/>
       <c r="C237" t="s">
         <v>338</v>
@@ -12172,7 +12201,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="14">
+    <row r="238" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A238" s="20"/>
       <c r="C238" t="s">
         <v>340</v>
@@ -12201,7 +12230,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="14">
+    <row r="239" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A239" s="20"/>
       <c r="C239" t="s">
         <v>341</v>
@@ -12230,7 +12259,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="14">
+    <row r="240" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A240" s="20"/>
       <c r="C240" t="s">
         <v>343</v>
@@ -12259,7 +12288,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="241" spans="1:18" ht="14">
+    <row r="241" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A241" s="20"/>
       <c r="C241" s="3" t="s">
         <v>193</v>
@@ -12288,7 +12317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="242" spans="1:18" ht="14">
+    <row r="242" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A242" s="20"/>
       <c r="C242" t="s">
         <v>345</v>
@@ -12317,7 +12346,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:18" ht="14">
+    <row r="243" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A243" s="20"/>
       <c r="B243" s="20"/>
       <c r="C243" t="s">
@@ -12351,7 +12380,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:18" ht="14">
+    <row r="244" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="1" t="s">
@@ -12381,7 +12410,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="245" spans="1:18" ht="14">
+    <row r="245" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="1" t="s">
@@ -12411,7 +12440,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="246" spans="1:18" ht="14">
+    <row r="246" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="1" t="s">
@@ -12441,7 +12470,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="247" spans="1:18" ht="14">
+    <row r="247" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="1" t="s">
@@ -12471,7 +12500,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="248" spans="1:18" ht="14">
+    <row r="248" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="1" t="s">
@@ -12501,7 +12530,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="249" spans="1:18" ht="14">
+    <row r="249" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A249" s="20"/>
       <c r="B249" s="20"/>
       <c r="C249" s="1" t="s">
@@ -12533,7 +12562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="250" spans="1:18" ht="14">
+    <row r="250" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A250" s="20"/>
       <c r="B250" s="20"/>
       <c r="C250" s="1" t="s">
@@ -12567,7 +12596,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="251" spans="1:18" ht="14">
+    <row r="251" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A251" s="20"/>
       <c r="B251" s="20"/>
       <c r="C251" s="1" t="s">
@@ -12601,7 +12630,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="252" spans="1:18" ht="14">
+    <row r="252" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A252" s="20"/>
       <c r="B252" s="20"/>
       <c r="C252" s="1" t="s">
@@ -12635,7 +12664,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="253" spans="1:18" ht="14">
+    <row r="253" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A253" s="20"/>
       <c r="B253" s="20"/>
       <c r="C253" s="1" t="s">
@@ -12667,7 +12696,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="254" spans="1:18" ht="14">
+    <row r="254" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A254" s="20"/>
       <c r="B254" s="20"/>
       <c r="C254" s="1" t="s">
@@ -12699,7 +12728,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="255" spans="1:18" ht="14">
+    <row r="255" spans="1:18" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A255" s="20"/>
       <c r="B255" s="20"/>
       <c r="C255" s="1" t="s">
@@ -12731,7 +12760,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="256" spans="1:18" ht="15" thickBot="1">
+    <row r="256" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A256" s="16"/>
       <c r="B256" s="16"/>
       <c r="C256" s="86" t="s">
@@ -12764,7 +12793,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A257" s="20"/>
       <c r="B257" s="20"/>
       <c r="D257" s="1"/>
@@ -12783,7 +12812,7 @@
       <c r="R257" s="9"/>
       <c r="S257" s="9"/>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A258" s="20"/>
       <c r="B258" s="20"/>
       <c r="D258" s="1"/>
@@ -12801,7 +12830,7 @@
       <c r="R258" s="9"/>
       <c r="S258" s="9"/>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A259" s="20"/>
       <c r="B259" s="20"/>
       <c r="D259" s="1"/>
@@ -12819,7 +12848,7 @@
       <c r="R259" s="9"/>
       <c r="S259" s="9"/>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A260" s="20"/>
       <c r="B260" s="20"/>
       <c r="F260" s="20"/>
@@ -12848,20 +12877,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T242"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="14" max="15" width="7.1640625" customWidth="1"/>
+    <col min="14" max="15" width="7.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="14.65" x14ac:dyDescent="0.5">
       <c r="A1" s="79" t="s">
         <v>429</v>
       </c>
@@ -12908,7 +12937,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" ht="13.15" x14ac:dyDescent="0.4">
       <c r="C2" s="84" t="s">
         <v>376</v>
       </c>
@@ -12945,7 +12974,7 @@
       <c r="N2" s="6"/>
       <c r="O2" s="92"/>
     </row>
-    <row r="3" spans="1:20" ht="13" thickBot="1">
+    <row r="3" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="54"/>
       <c r="B3" s="80"/>
       <c r="C3" s="48"/>
@@ -12964,7 +12993,7 @@
       <c r="N3" s="54"/>
       <c r="O3" s="110"/>
     </row>
-    <row r="4" spans="1:20" ht="14">
+    <row r="4" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" s="21" t="s">
         <v>421</v>
       </c>
@@ -13016,7 +13045,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>34</v>
       </c>
@@ -13065,7 +13094,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>34</v>
       </c>
@@ -13114,7 +13143,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="40" t="s">
         <v>34</v>
       </c>
@@ -13163,7 +13192,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
@@ -13212,7 +13241,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="40" t="s">
         <v>34</v>
       </c>
@@ -13261,7 +13290,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
@@ -13310,7 +13339,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
@@ -13359,7 +13388,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
@@ -13408,7 +13437,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
@@ -13457,7 +13486,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -13506,7 +13535,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>34</v>
       </c>
@@ -13555,7 +13584,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
         <v>34</v>
       </c>
@@ -13604,7 +13633,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
@@ -13653,7 +13682,7 @@
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B18" s="40" t="s">
         <v>34</v>
       </c>
@@ -13702,7 +13731,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>34</v>
       </c>
@@ -13751,7 +13780,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
         <v>34</v>
       </c>
@@ -13800,7 +13829,7 @@
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>34</v>
       </c>
@@ -13849,7 +13878,7 @@
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
@@ -13898,7 +13927,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
         <v>34</v>
       </c>
@@ -13947,7 +13976,7 @@
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
@@ -13996,7 +14025,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
@@ -14045,7 +14074,7 @@
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>34</v>
       </c>
@@ -14094,7 +14123,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>34</v>
       </c>
@@ -14143,7 +14172,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="40" t="s">
         <v>34</v>
       </c>
@@ -14192,7 +14221,7 @@
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>34</v>
       </c>
@@ -14241,7 +14270,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
         <v>34</v>
       </c>
@@ -14290,7 +14319,7 @@
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
@@ -14339,7 +14368,7 @@
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
         <v>34</v>
       </c>
@@ -14388,7 +14417,7 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B33" s="40" t="s">
         <v>34</v>
       </c>
@@ -14437,7 +14466,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
         <v>34</v>
       </c>
@@ -14486,7 +14515,7 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B35" s="40" t="s">
         <v>34</v>
       </c>
@@ -14535,7 +14564,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
@@ -14584,7 +14613,7 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>34</v>
       </c>
@@ -14633,7 +14662,7 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
         <v>34</v>
       </c>
@@ -14682,7 +14711,7 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B39" s="40" t="s">
         <v>34</v>
       </c>
@@ -14731,7 +14760,7 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="40" t="s">
         <v>34</v>
       </c>
@@ -14780,7 +14809,7 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="40" t="s">
         <v>34</v>
       </c>
@@ -14829,7 +14858,7 @@
       <c r="S41" s="3"/>
       <c r="T41" s="3"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
         <v>34</v>
       </c>
@@ -14878,7 +14907,7 @@
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B43" s="40" t="s">
         <v>34</v>
       </c>
@@ -14927,7 +14956,7 @@
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
@@ -14976,7 +15005,7 @@
       <c r="S44" s="3"/>
       <c r="T44" s="3"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
         <v>34</v>
       </c>
@@ -15025,7 +15054,7 @@
       <c r="S45" s="3"/>
       <c r="T45" s="3"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
         <v>34</v>
       </c>
@@ -15074,7 +15103,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
         <v>34</v>
       </c>
@@ -15123,7 +15152,7 @@
       <c r="S47" s="3"/>
       <c r="T47" s="3"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
         <v>34</v>
       </c>
@@ -15172,7 +15201,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>34</v>
       </c>
@@ -15221,7 +15250,7 @@
       <c r="S49" s="3"/>
       <c r="T49" s="3"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
         <v>34</v>
       </c>
@@ -15270,7 +15299,7 @@
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
         <v>34</v>
       </c>
@@ -15319,7 +15348,7 @@
       <c r="S51" s="3"/>
       <c r="T51" s="3"/>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
         <v>34</v>
       </c>
@@ -15368,7 +15397,7 @@
       <c r="S52" s="3"/>
       <c r="T52" s="3"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
         <v>34</v>
       </c>
@@ -15417,7 +15446,7 @@
       <c r="S53" s="3"/>
       <c r="T53" s="3"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
         <v>34</v>
       </c>
@@ -15466,7 +15495,7 @@
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
         <v>34</v>
       </c>
@@ -15515,7 +15544,7 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
     </row>
-    <row r="56" spans="2:20">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
         <v>34</v>
       </c>
@@ -15564,7 +15593,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="2:20">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
         <v>34</v>
       </c>
@@ -15613,7 +15642,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="2:20">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
         <v>34</v>
       </c>
@@ -15662,7 +15691,7 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>34</v>
       </c>
@@ -15711,7 +15740,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
         <v>34</v>
       </c>
@@ -15760,7 +15789,7 @@
       <c r="S60" s="3"/>
       <c r="T60" s="3"/>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
         <v>34</v>
       </c>
@@ -15809,7 +15838,7 @@
       <c r="S61" s="3"/>
       <c r="T61" s="3"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
         <v>34</v>
       </c>
@@ -15858,7 +15887,7 @@
       <c r="S62" s="3"/>
       <c r="T62" s="3"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B63" s="4" t="s">
         <v>34</v>
       </c>
@@ -15907,7 +15936,7 @@
       <c r="S63" s="3"/>
       <c r="T63" s="3"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B64" s="4" t="s">
         <v>34</v>
       </c>
@@ -15956,7 +15985,7 @@
       <c r="S64" s="3"/>
       <c r="T64" s="3"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B65" s="4" t="s">
         <v>34</v>
       </c>
@@ -16005,7 +16034,7 @@
       <c r="S65" s="3"/>
       <c r="T65" s="3"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B66" s="4" t="s">
         <v>34</v>
       </c>
@@ -16054,7 +16083,7 @@
       <c r="S66" s="3"/>
       <c r="T66" s="3"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B67" s="4" t="s">
         <v>34</v>
       </c>
@@ -16103,7 +16132,7 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B68" s="40" t="s">
         <v>34</v>
       </c>
@@ -16152,7 +16181,7 @@
       <c r="S68" s="3"/>
       <c r="T68" s="3"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>34</v>
       </c>
@@ -16201,7 +16230,7 @@
       <c r="S69" s="3"/>
       <c r="T69" s="3"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B70" s="4" t="s">
         <v>34</v>
       </c>
@@ -16250,7 +16279,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="3"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A71" s="57"/>
       <c r="B71" s="41" t="s">
         <v>34</v>
@@ -16300,7 +16329,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="3"/>
     </row>
-    <row r="72" spans="1:20" ht="14">
+    <row r="72" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A72" s="21" t="s">
         <v>415</v>
       </c>
@@ -16352,7 +16381,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="3"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B73" s="4" t="s">
         <v>162</v>
       </c>
@@ -16401,7 +16430,7 @@
       <c r="S73" s="3"/>
       <c r="T73" s="3"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B74" s="4" t="s">
         <v>162</v>
       </c>
@@ -16450,7 +16479,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B75" s="4" t="s">
         <v>162</v>
       </c>
@@ -16499,7 +16528,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B76" s="4" t="s">
         <v>162</v>
       </c>
@@ -16548,7 +16577,7 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B77" s="4" t="s">
         <v>162</v>
       </c>
@@ -16597,7 +16626,7 @@
       <c r="S77" s="3"/>
       <c r="T77" s="3"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B78" s="4" t="s">
         <v>162</v>
       </c>
@@ -16646,7 +16675,7 @@
       <c r="S78" s="3"/>
       <c r="T78" s="3"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
         <v>162</v>
       </c>
@@ -16695,7 +16724,7 @@
       <c r="S79" s="3"/>
       <c r="T79" s="3"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B80" s="4" t="s">
         <v>162</v>
       </c>
@@ -16744,7 +16773,7 @@
       <c r="S80" s="3"/>
       <c r="T80" s="3"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B81" s="4" t="s">
         <v>162</v>
       </c>
@@ -16793,7 +16822,7 @@
       <c r="S81" s="3"/>
       <c r="T81" s="3"/>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B82" s="4" t="s">
         <v>162</v>
       </c>
@@ -16842,7 +16871,7 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B83" s="4" t="s">
         <v>162</v>
       </c>
@@ -16891,7 +16920,7 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B84" s="4" t="s">
         <v>162</v>
       </c>
@@ -16940,7 +16969,7 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B85" s="4" t="s">
         <v>162</v>
       </c>
@@ -16989,7 +17018,7 @@
       <c r="S85" s="3"/>
       <c r="T85" s="3"/>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B86" s="4" t="s">
         <v>162</v>
       </c>
@@ -17038,7 +17067,7 @@
       <c r="S86" s="3"/>
       <c r="T86" s="3"/>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B87" s="4" t="s">
         <v>162</v>
       </c>
@@ -17087,7 +17116,7 @@
       <c r="S87" s="3"/>
       <c r="T87" s="3"/>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B88" s="4" t="s">
         <v>162</v>
       </c>
@@ -17136,7 +17165,7 @@
       <c r="S88" s="3"/>
       <c r="T88" s="3"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B89" s="4" t="s">
         <v>162</v>
       </c>
@@ -17185,7 +17214,7 @@
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B90" s="4" t="s">
         <v>162</v>
       </c>
@@ -17234,7 +17263,7 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B91" s="4" t="s">
         <v>162</v>
       </c>
@@ -17283,7 +17312,7 @@
       <c r="S91" s="3"/>
       <c r="T91" s="3"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B92" s="4" t="s">
         <v>162</v>
       </c>
@@ -17332,7 +17361,7 @@
       <c r="S92" s="3"/>
       <c r="T92" s="3"/>
     </row>
-    <row r="93" spans="2:20">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B93" s="4" t="s">
         <v>162</v>
       </c>
@@ -17381,7 +17410,7 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
     </row>
-    <row r="94" spans="2:20">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B94" s="4" t="s">
         <v>162</v>
       </c>
@@ -17430,7 +17459,7 @@
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
     </row>
-    <row r="95" spans="2:20">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B95" s="4" t="s">
         <v>162</v>
       </c>
@@ -17479,7 +17508,7 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
     </row>
-    <row r="96" spans="2:20">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B96" s="4" t="s">
         <v>162</v>
       </c>
@@ -17528,7 +17557,7 @@
       <c r="S96" s="3"/>
       <c r="T96" s="3"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B97" s="4" t="s">
         <v>162</v>
       </c>
@@ -17577,7 +17606,7 @@
       <c r="S97" s="3"/>
       <c r="T97" s="3"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B98" s="4" t="s">
         <v>162</v>
       </c>
@@ -17626,7 +17655,7 @@
       <c r="S98" s="3"/>
       <c r="T98" s="3"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>162</v>
       </c>
@@ -17675,7 +17704,7 @@
       <c r="S99" s="3"/>
       <c r="T99" s="3"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B100" s="40" t="s">
         <v>162</v>
       </c>
@@ -17724,7 +17753,7 @@
       <c r="S100" s="3"/>
       <c r="T100" s="3"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B101" s="4" t="s">
         <v>162</v>
       </c>
@@ -17773,7 +17802,7 @@
       <c r="S101" s="3"/>
       <c r="T101" s="3"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B102" s="4" t="s">
         <v>162</v>
       </c>
@@ -17822,7 +17851,7 @@
       <c r="S102" s="3"/>
       <c r="T102" s="3"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B103" s="4" t="s">
         <v>162</v>
       </c>
@@ -17871,7 +17900,7 @@
       <c r="S103" s="3"/>
       <c r="T103" s="3"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B104" s="4" t="s">
         <v>162</v>
       </c>
@@ -17920,7 +17949,7 @@
       <c r="S104" s="3"/>
       <c r="T104" s="3"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B105" s="4" t="s">
         <v>162</v>
       </c>
@@ -17969,7 +17998,7 @@
       <c r="S105" s="3"/>
       <c r="T105" s="3"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B106" s="4" t="s">
         <v>162</v>
       </c>
@@ -18018,7 +18047,7 @@
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B107" s="4" t="s">
         <v>162</v>
       </c>
@@ -18067,7 +18096,7 @@
       <c r="S107" s="3"/>
       <c r="T107" s="3"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B108" s="4" t="s">
         <v>162</v>
       </c>
@@ -18116,7 +18145,7 @@
       <c r="S108" s="3"/>
       <c r="T108" s="3"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B109" s="4" t="s">
         <v>162</v>
       </c>
@@ -18165,7 +18194,7 @@
       <c r="S109" s="3"/>
       <c r="T109" s="3"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A110" s="57"/>
       <c r="B110" s="41" t="s">
         <v>162</v>
@@ -18215,7 +18244,7 @@
       <c r="S110" s="3"/>
       <c r="T110" s="3"/>
     </row>
-    <row r="111" spans="1:20" ht="14">
+    <row r="111" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A111" s="21" t="s">
         <v>417</v>
       </c>
@@ -18267,7 +18296,7 @@
       <c r="S111" s="3"/>
       <c r="T111" s="3"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B112" s="4" t="s">
         <v>30</v>
       </c>
@@ -18316,7 +18345,7 @@
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B113" s="4" t="s">
         <v>30</v>
       </c>
@@ -18365,7 +18394,7 @@
       <c r="S113" s="3"/>
       <c r="T113" s="3"/>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B114" s="4" t="s">
         <v>30</v>
       </c>
@@ -18414,7 +18443,7 @@
       <c r="S114" s="3"/>
       <c r="T114" s="3"/>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B115" s="4" t="s">
         <v>30</v>
       </c>
@@ -18463,7 +18492,7 @@
       <c r="S115" s="3"/>
       <c r="T115" s="3"/>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B116" s="4" t="s">
         <v>30</v>
       </c>
@@ -18512,7 +18541,7 @@
       <c r="S116" s="3"/>
       <c r="T116" s="3"/>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B117" s="4" t="s">
         <v>30</v>
       </c>
@@ -18561,7 +18590,7 @@
       <c r="S117" s="3"/>
       <c r="T117" s="3"/>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B118" s="4" t="s">
         <v>30</v>
       </c>
@@ -18610,7 +18639,7 @@
       <c r="S118" s="3"/>
       <c r="T118" s="3"/>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B119" s="4" t="s">
         <v>30</v>
       </c>
@@ -18659,7 +18688,7 @@
       <c r="S119" s="3"/>
       <c r="T119" s="3"/>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B120" s="4" t="s">
         <v>30</v>
       </c>
@@ -18708,7 +18737,7 @@
       <c r="S120" s="3"/>
       <c r="T120" s="3"/>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B121" s="4" t="s">
         <v>30</v>
       </c>
@@ -18757,7 +18786,7 @@
       <c r="S121" s="3"/>
       <c r="T121" s="3"/>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B122" s="4" t="s">
         <v>30</v>
       </c>
@@ -18806,7 +18835,7 @@
       <c r="S122" s="3"/>
       <c r="T122" s="3"/>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B123" s="4" t="s">
         <v>30</v>
       </c>
@@ -18855,7 +18884,7 @@
       <c r="S123" s="3"/>
       <c r="T123" s="3"/>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B124" s="4" t="s">
         <v>30</v>
       </c>
@@ -18904,7 +18933,7 @@
       <c r="S124" s="3"/>
       <c r="T124" s="3"/>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B125" s="4" t="s">
         <v>30</v>
       </c>
@@ -18953,7 +18982,7 @@
       <c r="S125" s="3"/>
       <c r="T125" s="3"/>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B126" s="4" t="s">
         <v>30</v>
       </c>
@@ -19002,7 +19031,7 @@
       <c r="S126" s="3"/>
       <c r="T126" s="3"/>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B127" s="4" t="s">
         <v>30</v>
       </c>
@@ -19051,7 +19080,7 @@
       <c r="S127" s="3"/>
       <c r="T127" s="3"/>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B128" s="4" t="s">
         <v>30</v>
       </c>
@@ -19100,7 +19129,7 @@
       <c r="S128" s="3"/>
       <c r="T128" s="3"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B129" s="4" t="s">
         <v>30</v>
       </c>
@@ -19149,7 +19178,7 @@
       <c r="S129" s="3"/>
       <c r="T129" s="3"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B130" s="4" t="s">
         <v>30</v>
       </c>
@@ -19198,7 +19227,7 @@
       <c r="S130" s="3"/>
       <c r="T130" s="3"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>30</v>
       </c>
@@ -19247,7 +19276,7 @@
       <c r="S131" s="3"/>
       <c r="T131" s="3"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B132" s="4" t="s">
         <v>30</v>
       </c>
@@ -19296,7 +19325,7 @@
       <c r="S132" s="3"/>
       <c r="T132" s="3"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B133" s="4" t="s">
         <v>30</v>
       </c>
@@ -19345,7 +19374,7 @@
       <c r="S133" s="3"/>
       <c r="T133" s="3"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B134" s="4" t="s">
         <v>30</v>
       </c>
@@ -19394,7 +19423,7 @@
       <c r="S134" s="3"/>
       <c r="T134" s="3"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B135" s="4" t="s">
         <v>30</v>
       </c>
@@ -19443,7 +19472,7 @@
       <c r="S135" s="3"/>
       <c r="T135" s="3"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B136" s="4" t="s">
         <v>30</v>
       </c>
@@ -19492,7 +19521,7 @@
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B137" s="4" t="s">
         <v>30</v>
       </c>
@@ -19541,7 +19570,7 @@
       <c r="S137" s="3"/>
       <c r="T137" s="3"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B138" s="4" t="s">
         <v>30</v>
       </c>
@@ -19590,7 +19619,7 @@
       <c r="S138" s="3"/>
       <c r="T138" s="3"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B139" s="4" t="s">
         <v>30</v>
       </c>
@@ -19639,7 +19668,7 @@
       <c r="S139" s="3"/>
       <c r="T139" s="3"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B140" s="4" t="s">
         <v>30</v>
       </c>
@@ -19688,7 +19717,7 @@
       <c r="S140" s="3"/>
       <c r="T140" s="3"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B141" s="4" t="s">
         <v>30</v>
       </c>
@@ -19737,7 +19766,7 @@
       <c r="S141" s="3"/>
       <c r="T141" s="3"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B142" s="4" t="s">
         <v>30</v>
       </c>
@@ -19786,7 +19815,7 @@
       <c r="S142" s="3"/>
       <c r="T142" s="3"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A143" s="57"/>
       <c r="B143" s="41" t="s">
         <v>30</v>
@@ -19836,7 +19865,7 @@
       <c r="S143" s="3"/>
       <c r="T143" s="3"/>
     </row>
-    <row r="144" spans="1:20" ht="14">
+    <row r="144" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A144" s="21" t="s">
         <v>452</v>
       </c>
@@ -19888,7 +19917,7 @@
       <c r="S144" s="3"/>
       <c r="T144" s="3"/>
     </row>
-    <row r="145" spans="2:20">
+    <row r="145" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B145" s="4" t="s">
         <v>33</v>
       </c>
@@ -19937,7 +19966,7 @@
       <c r="S145" s="3"/>
       <c r="T145" s="3"/>
     </row>
-    <row r="146" spans="2:20">
+    <row r="146" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B146" s="4" t="s">
         <v>33</v>
       </c>
@@ -19986,7 +20015,7 @@
       <c r="S146" s="3"/>
       <c r="T146" s="3"/>
     </row>
-    <row r="147" spans="2:20">
+    <row r="147" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B147" s="4" t="s">
         <v>33</v>
       </c>
@@ -20035,7 +20064,7 @@
       <c r="S147" s="3"/>
       <c r="T147" s="3"/>
     </row>
-    <row r="148" spans="2:20">
+    <row r="148" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B148" s="4" t="s">
         <v>33</v>
       </c>
@@ -20084,7 +20113,7 @@
       <c r="S148" s="3"/>
       <c r="T148" s="3"/>
     </row>
-    <row r="149" spans="2:20">
+    <row r="149" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B149" s="4" t="s">
         <v>33</v>
       </c>
@@ -20133,7 +20162,7 @@
       <c r="S149" s="3"/>
       <c r="T149" s="3"/>
     </row>
-    <row r="150" spans="2:20">
+    <row r="150" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B150" s="4" t="s">
         <v>33</v>
       </c>
@@ -20182,7 +20211,7 @@
       <c r="S150" s="3"/>
       <c r="T150" s="3"/>
     </row>
-    <row r="151" spans="2:20">
+    <row r="151" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B151" s="4" t="s">
         <v>33</v>
       </c>
@@ -20231,7 +20260,7 @@
       <c r="S151" s="3"/>
       <c r="T151" s="3"/>
     </row>
-    <row r="152" spans="2:20">
+    <row r="152" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B152" s="4" t="s">
         <v>33</v>
       </c>
@@ -20280,7 +20309,7 @@
       <c r="S152" s="3"/>
       <c r="T152" s="3"/>
     </row>
-    <row r="153" spans="2:20">
+    <row r="153" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>33</v>
       </c>
@@ -20329,7 +20358,7 @@
       <c r="S153" s="3"/>
       <c r="T153" s="3"/>
     </row>
-    <row r="154" spans="2:20">
+    <row r="154" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B154" s="4" t="s">
         <v>33</v>
       </c>
@@ -20378,7 +20407,7 @@
       <c r="S154" s="3"/>
       <c r="T154" s="3"/>
     </row>
-    <row r="155" spans="2:20">
+    <row r="155" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B155" s="4" t="s">
         <v>33</v>
       </c>
@@ -20427,7 +20456,7 @@
       <c r="S155" s="3"/>
       <c r="T155" s="3"/>
     </row>
-    <row r="156" spans="2:20">
+    <row r="156" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B156" s="4" t="s">
         <v>33</v>
       </c>
@@ -20476,7 +20505,7 @@
       <c r="S156" s="3"/>
       <c r="T156" s="3"/>
     </row>
-    <row r="157" spans="2:20">
+    <row r="157" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B157" s="4" t="s">
         <v>33</v>
       </c>
@@ -20525,7 +20554,7 @@
       <c r="S157" s="3"/>
       <c r="T157" s="3"/>
     </row>
-    <row r="158" spans="2:20">
+    <row r="158" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B158" s="4" t="s">
         <v>33</v>
       </c>
@@ -20574,7 +20603,7 @@
       <c r="S158" s="3"/>
       <c r="T158" s="3"/>
     </row>
-    <row r="159" spans="2:20">
+    <row r="159" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B159" s="4" t="s">
         <v>33</v>
       </c>
@@ -20623,7 +20652,7 @@
       <c r="S159" s="3"/>
       <c r="T159" s="3"/>
     </row>
-    <row r="160" spans="2:20">
+    <row r="160" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B160" s="4" t="s">
         <v>33</v>
       </c>
@@ -20672,7 +20701,7 @@
       <c r="S160" s="3"/>
       <c r="T160" s="3"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B161" s="4" t="s">
         <v>33</v>
       </c>
@@ -20721,7 +20750,7 @@
       <c r="S161" s="3"/>
       <c r="T161" s="3"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B162" s="4" t="s">
         <v>33</v>
       </c>
@@ -20770,7 +20799,7 @@
       <c r="S162" s="3"/>
       <c r="T162" s="3"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B163" s="4" t="s">
         <v>33</v>
       </c>
@@ -20819,7 +20848,7 @@
       <c r="S163" s="3"/>
       <c r="T163" s="3"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B164" s="4" t="s">
         <v>33</v>
       </c>
@@ -20868,7 +20897,7 @@
       <c r="S164" s="3"/>
       <c r="T164" s="3"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B165" s="4" t="s">
         <v>33</v>
       </c>
@@ -20917,7 +20946,7 @@
       <c r="S165" s="3"/>
       <c r="T165" s="3"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B166" s="4" t="s">
         <v>33</v>
       </c>
@@ -20966,7 +20995,7 @@
       <c r="S166" s="3"/>
       <c r="T166" s="3"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B167" s="4" t="s">
         <v>33</v>
       </c>
@@ -21015,7 +21044,7 @@
       <c r="S167" s="3"/>
       <c r="T167" s="3"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B168" s="4" t="s">
         <v>33</v>
       </c>
@@ -21064,7 +21093,7 @@
       <c r="S168" s="3"/>
       <c r="T168" s="3"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A169" s="57"/>
       <c r="B169" s="41" t="s">
         <v>33</v>
@@ -21114,7 +21143,7 @@
       <c r="S169" s="3"/>
       <c r="T169" s="3"/>
     </row>
-    <row r="170" spans="1:20" ht="14">
+    <row r="170" spans="1:20" ht="14.65" x14ac:dyDescent="0.45">
       <c r="A170" s="21" t="s">
         <v>420</v>
       </c>
@@ -21166,7 +21195,7 @@
       <c r="S170" s="3"/>
       <c r="T170" s="3"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B171" s="4" t="s">
         <v>371</v>
       </c>
@@ -21215,7 +21244,7 @@
       <c r="S171" s="3"/>
       <c r="T171" s="3"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B172" s="4" t="s">
         <v>371</v>
       </c>
@@ -21264,7 +21293,7 @@
       <c r="S172" s="3"/>
       <c r="T172" s="3"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B173" s="4" t="s">
         <v>371</v>
       </c>
@@ -21313,7 +21342,7 @@
       <c r="S173" s="3"/>
       <c r="T173" s="3"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B174" s="4" t="s">
         <v>371</v>
       </c>
@@ -21362,7 +21391,7 @@
       <c r="S174" s="3"/>
       <c r="T174" s="3"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>371</v>
       </c>
@@ -21411,7 +21440,7 @@
       <c r="S175" s="3"/>
       <c r="T175" s="3"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B176" s="4" t="s">
         <v>371</v>
       </c>
@@ -21460,7 +21489,7 @@
       <c r="S176" s="3"/>
       <c r="T176" s="3"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B177" s="4" t="s">
         <v>371</v>
       </c>
@@ -21509,7 +21538,7 @@
       <c r="S177" s="3"/>
       <c r="T177" s="3"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B178" s="4" t="s">
         <v>371</v>
       </c>
@@ -21558,7 +21587,7 @@
       <c r="S178" s="3"/>
       <c r="T178" s="3"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B179" s="4" t="s">
         <v>371</v>
       </c>
@@ -21607,7 +21636,7 @@
       <c r="S179" s="3"/>
       <c r="T179" s="3"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B180" s="4" t="s">
         <v>371</v>
       </c>
@@ -21656,7 +21685,7 @@
       <c r="S180" s="3"/>
       <c r="T180" s="3"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B181" s="4" t="s">
         <v>371</v>
       </c>
@@ -21705,7 +21734,7 @@
       <c r="S181" s="3"/>
       <c r="T181" s="3"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B182" s="4" t="s">
         <v>371</v>
       </c>
@@ -21754,7 +21783,7 @@
       <c r="S182" s="3"/>
       <c r="T182" s="3"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B183" s="4" t="s">
         <v>371</v>
       </c>
@@ -21803,7 +21832,7 @@
       <c r="S183" s="3"/>
       <c r="T183" s="3"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B184" s="4" t="s">
         <v>371</v>
       </c>
@@ -21852,7 +21881,7 @@
       <c r="S184" s="3"/>
       <c r="T184" s="3"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B185" s="4" t="s">
         <v>371</v>
       </c>
@@ -21901,7 +21930,7 @@
       <c r="S185" s="3"/>
       <c r="T185" s="3"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B186" s="4" t="s">
         <v>371</v>
       </c>
@@ -21950,7 +21979,7 @@
       <c r="S186" s="3"/>
       <c r="T186" s="3"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B187" s="4" t="s">
         <v>371</v>
       </c>
@@ -21999,7 +22028,7 @@
       <c r="S187" s="3"/>
       <c r="T187" s="3"/>
     </row>
-    <row r="188" spans="1:20" s="6" customFormat="1">
+    <row r="188" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="57"/>
       <c r="B188" s="41" t="s">
         <v>371</v>
@@ -22049,7 +22078,7 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" ht="14">
+    <row r="189" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A189" s="21" t="s">
         <v>416</v>
       </c>
@@ -22101,7 +22130,7 @@
       <c r="S189" s="3"/>
       <c r="T189" s="3"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B190" s="4" t="s">
         <v>55</v>
       </c>
@@ -22150,7 +22179,7 @@
       <c r="S190" s="3"/>
       <c r="T190" s="3"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B191" s="4" t="s">
         <v>55</v>
       </c>
@@ -22199,7 +22228,7 @@
       <c r="S191" s="3"/>
       <c r="T191" s="3"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B192" s="4" t="s">
         <v>55</v>
       </c>
@@ -22248,7 +22277,7 @@
       <c r="S192" s="3"/>
       <c r="T192" s="3"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B193" s="4" t="s">
         <v>55</v>
       </c>
@@ -22297,7 +22326,7 @@
       <c r="S193" s="3"/>
       <c r="T193" s="3"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B194" s="4" t="s">
         <v>55</v>
       </c>
@@ -22346,7 +22375,7 @@
       <c r="S194" s="3"/>
       <c r="T194" s="3"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B195" s="4" t="s">
         <v>55</v>
       </c>
@@ -22395,7 +22424,7 @@
       <c r="S195" s="3"/>
       <c r="T195" s="3"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B196" s="4" t="s">
         <v>55</v>
       </c>
@@ -22444,7 +22473,7 @@
       <c r="S196" s="3"/>
       <c r="T196" s="3"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>55</v>
       </c>
@@ -22493,7 +22522,7 @@
       <c r="S197" s="3"/>
       <c r="T197" s="3"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B198" s="4" t="s">
         <v>55</v>
       </c>
@@ -22542,7 +22571,7 @@
       <c r="S198" s="3"/>
       <c r="T198" s="3"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B199" s="4" t="s">
         <v>55</v>
       </c>
@@ -22591,7 +22620,7 @@
       <c r="S199" s="3"/>
       <c r="T199" s="3"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B200" s="4" t="s">
         <v>55</v>
       </c>
@@ -22640,7 +22669,7 @@
       <c r="S200" s="3"/>
       <c r="T200" s="3"/>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B201" s="4" t="s">
         <v>55</v>
       </c>
@@ -22689,7 +22718,7 @@
       <c r="S201" s="3"/>
       <c r="T201" s="3"/>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B202" s="4" t="s">
         <v>55</v>
       </c>
@@ -22738,7 +22767,7 @@
       <c r="S202" s="3"/>
       <c r="T202" s="3"/>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B203" s="4" t="s">
         <v>55</v>
       </c>
@@ -22787,7 +22816,7 @@
       <c r="S203" s="3"/>
       <c r="T203" s="3"/>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B204" s="4" t="s">
         <v>55</v>
       </c>
@@ -22836,7 +22865,7 @@
       <c r="S204" s="3"/>
       <c r="T204" s="3"/>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A205" s="57"/>
       <c r="B205" s="41" t="s">
         <v>55</v>
@@ -22886,7 +22915,7 @@
       <c r="S205" s="3"/>
       <c r="T205" s="3"/>
     </row>
-    <row r="206" spans="1:20" ht="14">
+    <row r="206" spans="1:20" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A206" s="21" t="s">
         <v>418</v>
       </c>
@@ -22938,7 +22967,7 @@
       <c r="S206" s="3"/>
       <c r="T206" s="3"/>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B207" s="4" t="s">
         <v>37</v>
       </c>
@@ -22987,7 +23016,7 @@
       <c r="S207" s="3"/>
       <c r="T207" s="3"/>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B208" s="4" t="s">
         <v>37</v>
       </c>
@@ -23036,7 +23065,7 @@
       <c r="S208" s="3"/>
       <c r="T208" s="3"/>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B209" s="4" t="s">
         <v>37</v>
       </c>
@@ -23085,7 +23114,7 @@
       <c r="S209" s="3"/>
       <c r="T209" s="3"/>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B210" s="4" t="s">
         <v>37</v>
       </c>
@@ -23134,7 +23163,7 @@
       <c r="S210" s="3"/>
       <c r="T210" s="3"/>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B211" s="4" t="s">
         <v>37</v>
       </c>
@@ -23183,7 +23212,7 @@
       <c r="S211" s="3"/>
       <c r="T211" s="3"/>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B212" s="4" t="s">
         <v>37</v>
       </c>
@@ -23232,7 +23261,7 @@
       <c r="S212" s="3"/>
       <c r="T212" s="3"/>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B213" s="4" t="s">
         <v>37</v>
       </c>
@@ -23281,7 +23310,7 @@
       <c r="S213" s="3"/>
       <c r="T213" s="3"/>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B214" s="4" t="s">
         <v>37</v>
       </c>
@@ -23330,7 +23359,7 @@
       <c r="S214" s="3"/>
       <c r="T214" s="3"/>
     </row>
-    <row r="215" spans="1:20" ht="13" thickBot="1">
+    <row r="215" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="54"/>
       <c r="B215" s="85" t="s">
         <v>37</v>
@@ -23380,7 +23409,7 @@
       <c r="S215" s="3"/>
       <c r="T215" s="3"/>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B216" s="3"/>
       <c r="C216" s="108" t="s">
         <v>449</v>
@@ -23404,7 +23433,7 @@
       <c r="S216" s="3"/>
       <c r="T216" s="3"/>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B217" s="3" t="s">
         <v>34</v>
       </c>
@@ -23432,7 +23461,7 @@
       <c r="S217" s="3"/>
       <c r="T217" s="3"/>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B218" s="40" t="s">
         <v>162</v>
       </c>
@@ -23460,7 +23489,7 @@
       <c r="S218" s="3"/>
       <c r="T218" s="3"/>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B219" s="40" t="s">
         <v>30</v>
       </c>
@@ -23488,7 +23517,7 @@
       <c r="S219" s="3"/>
       <c r="T219" s="3"/>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B220" s="40" t="s">
         <v>33</v>
       </c>
@@ -23516,7 +23545,7 @@
       <c r="S220" s="3"/>
       <c r="T220" s="3"/>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B221" s="40" t="s">
         <v>371</v>
       </c>
@@ -23544,7 +23573,7 @@
       <c r="S221" s="3"/>
       <c r="T221" s="3"/>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B222" s="40" t="s">
         <v>55</v>
       </c>
@@ -23572,7 +23601,7 @@
       <c r="S222" s="3"/>
       <c r="T222" s="3"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B223" s="40" t="s">
         <v>37</v>
       </c>
@@ -23600,7 +23629,7 @@
       <c r="S223" s="3"/>
       <c r="T223" s="3"/>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
@@ -23620,7 +23649,7 @@
       <c r="S224" s="3"/>
       <c r="T224" s="3"/>
     </row>
-    <row r="225" spans="2:20">
+    <row r="225" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3"/>
@@ -23640,7 +23669,7 @@
       <c r="S225" s="3"/>
       <c r="T225" s="3"/>
     </row>
-    <row r="226" spans="2:20">
+    <row r="226" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
       <c r="D226" s="3"/>
@@ -23660,7 +23689,7 @@
       <c r="S226" s="3"/>
       <c r="T226" s="3"/>
     </row>
-    <row r="227" spans="2:20">
+    <row r="227" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -23680,7 +23709,7 @@
       <c r="S227" s="3"/>
       <c r="T227" s="3"/>
     </row>
-    <row r="228" spans="2:20">
+    <row r="228" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -23700,7 +23729,7 @@
       <c r="S228" s="3"/>
       <c r="T228" s="3"/>
     </row>
-    <row r="229" spans="2:20">
+    <row r="229" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -23720,7 +23749,7 @@
       <c r="S229" s="3"/>
       <c r="T229" s="3"/>
     </row>
-    <row r="230" spans="2:20">
+    <row r="230" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -23740,7 +23769,7 @@
       <c r="S230" s="3"/>
       <c r="T230" s="3"/>
     </row>
-    <row r="231" spans="2:20">
+    <row r="231" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -23760,7 +23789,7 @@
       <c r="S231" s="3"/>
       <c r="T231" s="3"/>
     </row>
-    <row r="232" spans="2:20">
+    <row r="232" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -23780,7 +23809,7 @@
       <c r="S232" s="3"/>
       <c r="T232" s="3"/>
     </row>
-    <row r="233" spans="2:20">
+    <row r="233" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -23800,7 +23829,7 @@
       <c r="S233" s="3"/>
       <c r="T233" s="3"/>
     </row>
-    <row r="234" spans="2:20">
+    <row r="234" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -23820,7 +23849,7 @@
       <c r="S234" s="3"/>
       <c r="T234" s="3"/>
     </row>
-    <row r="235" spans="2:20">
+    <row r="235" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
       <c r="D235" s="3"/>
@@ -23840,7 +23869,7 @@
       <c r="S235" s="3"/>
       <c r="T235" s="3"/>
     </row>
-    <row r="236" spans="2:20">
+    <row r="236" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
       <c r="D236" s="3"/>
@@ -23860,7 +23889,7 @@
       <c r="S236" s="3"/>
       <c r="T236" s="3"/>
     </row>
-    <row r="237" spans="2:20">
+    <row r="237" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
       <c r="D237" s="3"/>
@@ -23880,7 +23909,7 @@
       <c r="S237" s="3"/>
       <c r="T237" s="3"/>
     </row>
-    <row r="238" spans="2:20">
+    <row r="238" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
       <c r="D238" s="3"/>
@@ -23900,7 +23929,7 @@
       <c r="S238" s="3"/>
       <c r="T238" s="3"/>
     </row>
-    <row r="239" spans="2:20">
+    <row r="239" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3"/>
@@ -23920,7 +23949,7 @@
       <c r="S239" s="3"/>
       <c r="T239" s="3"/>
     </row>
-    <row r="240" spans="2:20">
+    <row r="240" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3"/>
@@ -23940,7 +23969,7 @@
       <c r="S240" s="3"/>
       <c r="T240" s="3"/>
     </row>
-    <row r="241" spans="2:20">
+    <row r="241" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3"/>
@@ -23960,7 +23989,7 @@
       <c r="S241" s="3"/>
       <c r="T241" s="3"/>
     </row>
-    <row r="242" spans="2:20">
+    <row r="242" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3"/>
@@ -23992,19 +24021,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="13" thickBot="1">
+    <row r="2" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="54"/>
       <c r="B2" s="54"/>
       <c r="C2" s="54"/>
@@ -24020,7 +24049,7 @@
       <c r="M2" s="54"/>
       <c r="N2" s="54"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="114" t="s">
         <v>453</v>
       </c>
@@ -24064,7 +24093,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="13" thickBot="1">
+    <row r="4" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="121" t="s">
         <v>465</v>
       </c>
@@ -24108,7 +24137,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="129" t="s">
         <v>470</v>
       </c>
@@ -24152,7 +24181,7 @@
         <v>4.1869749999999997E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="135" t="s">
         <v>34</v>
       </c>
@@ -24196,7 +24225,7 @@
         <v>8.4699280000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="135" t="s">
         <v>162</v>
       </c>
@@ -24240,7 +24269,7 @@
         <v>9.1239559999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="135" t="s">
         <v>30</v>
       </c>
@@ -24284,7 +24313,7 @@
         <v>0.14303150000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="135" t="s">
         <v>33</v>
       </c>
@@ -24328,7 +24357,7 @@
         <v>0.15274950000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="135" t="s">
         <v>371</v>
       </c>
@@ -24372,7 +24401,7 @@
         <v>0.22159970000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="135" t="s">
         <v>55</v>
       </c>
@@ -24416,7 +24445,7 @@
         <v>0.1610356</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="129" t="s">
         <v>37</v>
       </c>
@@ -24460,7 +24489,7 @@
         <v>0.23009379999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="135" t="s">
         <v>471</v>
       </c>
@@ -24504,7 +24533,7 @@
         <v>4.2951250000000003E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="129" t="s">
         <v>472</v>
       </c>
@@ -24548,7 +24577,7 @@
         <v>0.1071691</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="135" t="s">
         <v>473</v>
       </c>
@@ -24592,7 +24621,7 @@
         <v>4.5506049999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1">
+    <row r="16" spans="1:14" ht="13.15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="142" t="s">
         <v>474</v>
       </c>
